--- a/FilmFinder/FilmFinder/bin/Release/Pilots and trials/Pilot 3/Subject 16 - Hina Pilot.xlsx
+++ b/FilmFinder/FilmFinder/bin/Release/Pilots and trials/Pilot 3/Subject 16 - Hina Pilot.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Subject 16 - Hina Pilot" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -720,11 +720,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="121781632"/>
-        <c:axId val="121791616"/>
+        <c:axId val="119876608"/>
+        <c:axId val="120050432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121781632"/>
+        <c:axId val="119876608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,7 +733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121791616"/>
+        <c:crossAx val="120050432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -741,7 +741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121791616"/>
+        <c:axId val="120050432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +752,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121781632"/>
+        <c:crossAx val="119876608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1116,11 +1116,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="125333888"/>
-        <c:axId val="125335424"/>
+        <c:axId val="125298176"/>
+        <c:axId val="125299712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="125333888"/>
+        <c:axId val="125298176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,7 +1129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125335424"/>
+        <c:crossAx val="125299712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1137,7 +1137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125335424"/>
+        <c:axId val="125299712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,7 +1148,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125333888"/>
+        <c:crossAx val="125298176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1512,11 +1512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="132346240"/>
-        <c:axId val="132347776"/>
+        <c:axId val="125343232"/>
+        <c:axId val="125344768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132346240"/>
+        <c:axId val="125343232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1525,7 +1525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132347776"/>
+        <c:crossAx val="125344768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1533,7 +1533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132347776"/>
+        <c:axId val="125344768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132346240"/>
+        <c:crossAx val="125343232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1950,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
